--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1255152.446448551</v>
+        <v>1257476.118262419</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -662,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="G2" t="n">
-        <v>30.26709059570747</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.88180868221614</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23.440468830362</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.0275780651082</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>178.157313031983</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>118.0728405592477</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>204.7452777895381</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,50 +1384,50 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.33804635206413</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.809496073036132</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>87.95566939920795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W21" t="n">
-        <v>23.21039812525965</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,17 +2317,17 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>98.38353541244602</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>36.31725999434533</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>10.40493801491967</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2060159584285</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.86366755684956</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F36" t="n">
-        <v>9.587428781497692</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>178.1219707306483</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>18.55597406227229</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>142.0523914963076</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>50.46697834767995</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,16 +4058,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.16010504236965</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>36.40077093850605</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4077,7 +4079,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="C2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="F2" t="n">
-        <v>88.90688071034873</v>
+        <v>85.86136179523774</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="C4" t="n">
-        <v>82.01130316959576</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="D4" t="n">
-        <v>82.01130316959576</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="E4" t="n">
-        <v>82.01130316959576</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F4" t="n">
-        <v>82.01130316959576</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G4" t="n">
-        <v>82.01130316959576</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4507,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>509.4769954460863</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>482.2773291604919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N9" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>851.8101010141643</v>
       </c>
-      <c r="O9" t="n">
-        <v>894.6625969973069</v>
-      </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>84.26906871835831</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5121,10 +5123,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
         <v>234.810827406191</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>913.4938269565423</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>667.4527462414319</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>667.4527462414319</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>875.2130450063858</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>875.2130450063858</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>875.2130450063858</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>875.2130450063858</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y15" t="n">
-        <v>667.4527462414319</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5600,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>929.0463735436861</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>726.8597789024521</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>498.6361606388412</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V18" t="n">
-        <v>263.4840524070985</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.4461484402802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>142.4461484402802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.6614854603483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.4125842604187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>327.2640844659515</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>119.4125842604187</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.4125842604187</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="C29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="D29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="E29" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.5415416409353</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>170.0885123598083</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>133.4044113554191</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.7568786610034</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
         <v>19.28114311021272</v>
@@ -6722,19 +6724,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>953.0837539380609</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>779.6664093887298</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>577.4798147474958</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>577.4798147474958</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>577.4798147474958</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>334.0310381033958</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>334.0310381033958</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.0535470733607</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>521.0535470733607</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D36" t="n">
-        <v>372.1191374121095</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E36" t="n">
-        <v>372.1191374121095</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>521.0535470733607</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.0535470733607</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7210,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.7257600495809</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>179.2727307684539</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>353.7257600495809</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>353.7257600495809</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>353.7257600495809</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>353.7257600495809</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>212.4775805350491</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C42" t="n">
-        <v>38.02455125392211</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7500,13 +7502,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="V42" t="n">
-        <v>588.4532163200711</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="W42" t="n">
-        <v>588.4532163200711</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="X42" t="n">
-        <v>588.4532163200711</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y42" t="n">
-        <v>380.6929175551172</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>694.6722890434539</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>694.6722890434539</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D45" t="n">
-        <v>545.7378793822027</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,43 +7736,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7836,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7982,10 +7984,10 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -7994,7 +7996,7 @@
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11148,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,10 +23272,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>47.89739788443234</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>363.4633956979714</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23628,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.9857126817669</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.49716000536247</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>198.4973048242362</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>287.0492336280195</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24099,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W21" t="n">
-        <v>228.48458503566</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>25.51171028787192</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>74.32496357586972</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>180.9337498050905</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>111.1278055702934</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>195.2777577623847</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>89.29416659579357</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,28 +25201,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F36" t="n">
-        <v>135.4817836118862</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25448,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>62.60403143131535</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>54.67861641877698</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>128.8890915023665</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>83.88899058466725</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>158.5530912385654</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,16 +25946,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>141.5483939459461</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>121.2443095168949</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25965,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,7 +26006,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>407450.9173721955</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>407450.9173721955</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407450.9173721954</v>
+        <v>407450.9173721955</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407450.9173721953</v>
+        <v>407450.9173721955</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407450.9173721955</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407450.9173721953</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407450.9173721954</v>
+        <v>407450.9173721953</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="F2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="G2" t="n">
-        <v>224316.9079172986</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
@@ -26335,7 +26337,7 @@
         <v>224316.9079172986</v>
       </c>
       <c r="J2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
         <v>224316.9079172987</v>
@@ -26344,16 +26346,16 @@
         <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="P2" t="n">
         <v>224316.9079172986</v>
-      </c>
-      <c r="P2" t="n">
-        <v>224316.9079172987</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,34 +26420,34 @@
         <v>366277.5278986197</v>
       </c>
       <c r="C4" t="n">
-        <v>329330.5315619939</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="F4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="G4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50385.00392753456</v>
       </c>
       <c r="H4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="I4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="L4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50385.00392753456</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753457</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133111.2257365654</v>
+        <v>133111.2257365655</v>
       </c>
       <c r="C6" t="n">
-        <v>116015.0721459678</v>
+        <v>116015.0721459674</v>
       </c>
       <c r="D6" t="n">
-        <v>176591.3943326357</v>
+        <v>176591.3943326359</v>
       </c>
       <c r="E6" t="n">
         <v>159278.2352260024</v>
       </c>
       <c r="F6" t="n">
+        <v>159278.2352260024</v>
+      </c>
+      <c r="G6" t="n">
         <v>159278.2352260025</v>
-      </c>
-      <c r="G6" t="n">
-        <v>159278.2352260024</v>
       </c>
       <c r="H6" t="n">
         <v>159278.2352260024</v>
@@ -26549,19 +26551,19 @@
         <v>111021.2822923698</v>
       </c>
       <c r="L6" t="n">
-        <v>159278.2352260024</v>
+        <v>159278.2352260023</v>
       </c>
       <c r="M6" t="n">
         <v>159278.2352260024</v>
       </c>
       <c r="N6" t="n">
-        <v>159278.2352260023</v>
+        <v>159278.2352260024</v>
       </c>
       <c r="O6" t="n">
         <v>159278.2352260024</v>
       </c>
       <c r="P6" t="n">
-        <v>159278.2352260025</v>
+        <v>159278.2352260024</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27382,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>353.3635167317617</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>385.0356469194276</v>
-      </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.8704497879187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.7229152265467</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>204.5611476089559</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>113.7342920886781</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>62.72157442133238</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>189.8484676766033</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,19 +27666,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>30.86275655426235</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>123.8600405104216</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27874,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>251.6582601192213</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.94970537138147</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37868,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1257476.118262419</v>
+        <v>1188624.821820982</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994976</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.00576294050472</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>19.88180868221614</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.440468830362</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994976</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,52 +913,52 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>90.15014305038721</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>178.157313031983</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>168.0500184703206</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.0728405592477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>142.054382817392</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>64.33804635206413</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>162.6080338315131</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
     </row>
     <row r="16">
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>27.44407725673862</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>234.288905720311</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>203.3816115706753</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>116.7837923946662</v>
       </c>
     </row>
     <row r="22">
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.53524424398009</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>52.70751068041569</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.74894597221386</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="29">
@@ -2800,64 +2800,64 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.72911805977611</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.40493801491967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,17 +3031,17 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.2060159584285</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="34">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>94.41048699370604</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3404,13 +3404,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8410341333234</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>154.8359655669564</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>130.6514142385373</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>142.0523914963076</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.16010504236965</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>61.68827609322837</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523774</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.4040511738892</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.4040511738892</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064624</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199488</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4357,25 +4357,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>200.9129817564609</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>146.859922150451</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9144214012476</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="X2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9144214012476</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.33406192680584</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680584</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680584</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680584</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680584</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680584</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064624</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064624</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199488</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199488</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199488</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="W3" t="n">
         <v>166.4401811388256</v>
@@ -4454,7 +4454,7 @@
         <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680584</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.6514970160482</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>125.7992042875079</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>110.3418936661594</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>110.3418936661594</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>784.1002736601483</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>784.1002736601483</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>784.1002736601483</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V5" t="n">
-        <v>784.1002736601483</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W5" t="n">
-        <v>540.6514970160482</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X5" t="n">
-        <v>540.6514970160482</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.9998941357428</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26906871835831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>391.2152311558108</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>391.2152311558108</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>391.2152311558108</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="13">
@@ -5232,10 +5232,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1276524520142</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X14" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y14" t="n">
-        <v>284.1276524520142</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.215552771464</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5366,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>336.430889791532</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.430889791532</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="16">
@@ -5469,10 +5469,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X17" t="n">
-        <v>348.0024326625565</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>560.7319261617492</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>560.7319261617492</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W18" t="n">
-        <v>560.7319261617492</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X18" t="n">
-        <v>560.7319261617492</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y18" t="n">
-        <v>352.9716273967953</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="19">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="22">
@@ -5934,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,25 +6092,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>243.8349102288568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>35.98341002332393</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6168,28 +6168,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6250,19 +6250,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
         <v>262.7299197543128</v>
@@ -6271,7 +6271,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>231.7585078938659</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>72.5210528884104</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6317,40 +6317,40 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X27" t="n">
-        <v>44.28007843568128</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="28">
@@ -6402,31 +6402,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>189.028636514577</v>
+        <v>544.2823899970649</v>
       </c>
       <c r="X30" t="n">
-        <v>189.028636514577</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="31">
@@ -6645,25 +6645,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6879,25 +6879,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6961,10 +6961,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
         <v>506.1786963984129</v>
@@ -6976,10 +6976,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
         <v>19.28114311021272</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>104.979157386297</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>706.487660844374</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>706.487660844374</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7359,19 +7359,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>832.0860300171641</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>832.0860300171641</v>
       </c>
       <c r="U42" t="n">
-        <v>820.5698913729518</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="V42" t="n">
-        <v>820.5698913729518</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="W42" t="n">
-        <v>820.5698913729518</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X42" t="n">
-        <v>612.718391167419</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y42" t="n">
-        <v>612.718391167419</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7681,19 +7681,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="C45" t="n">
-        <v>520.918188268317</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="D45" t="n">
-        <v>520.918188268317</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="E45" t="n">
-        <v>361.6807332628614</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>82.34666575615842</v>
       </c>
     </row>
     <row r="46">
@@ -7839,16 +7839,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
         <v>19.28114311021272</v>
@@ -7987,16 +7987,16 @@
         <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,19 +9722,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>47.89739788443234</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23472,13 +23472,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817688</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>43.16495137196441</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>159.647230318074</v>
       </c>
     </row>
     <row r="16">
@@ -23709,13 +23709,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>226.8698513616065</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4973048242362</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>135.4421949581581</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>29.41897557874998</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>88.8989033826382</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.7562331984329127</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.1474515333243</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>92.3617017129682</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.9337498050905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>360.4966346623572</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>207.9658651011435</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.2777577623847</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>254.830481723707</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.32716769143885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="34">
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>92.97244319957487</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25292,13 +25292,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979769</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>62.60403143131535</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>16.84720553688138</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,25 +25633,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>41.03175686530048</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>83.88899058466725</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.5483939459461</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>50.54716814326809</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407450.9173721955</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407450.9173721955</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407450.9173721955</v>
+        <v>407450.9173721954</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407450.9173721954</v>
+        <v>407450.9173721953</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>407450.9173721953</v>
+        <v>407450.9173721956</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="F2" t="n">
+        <v>224316.9079172988</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="F2" t="n">
-        <v>224316.9079172986</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="H2" t="n">
-        <v>224316.9079172986</v>
       </c>
       <c r="I2" t="n">
         <v>224316.9079172986</v>
@@ -26340,22 +26340,22 @@
         <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
+        <v>224316.9079172986</v>
+      </c>
+      <c r="L2" t="n">
         <v>224316.9079172987</v>
-      </c>
-      <c r="L2" t="n">
-        <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="O2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="P2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
     </row>
     <row r="3">
@@ -26429,28 +26429,28 @@
         <v>50385.00392753457</v>
       </c>
       <c r="F4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="G4" t="n">
         <v>50385.00392753458</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="I4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="L4" t="n">
         <v>50385.00392753458</v>
       </c>
-      <c r="L4" t="n">
-        <v>50385.00392753457</v>
-      </c>
       <c r="M4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="N4" t="n">
         <v>50385.00392753457</v>
@@ -26459,7 +26459,7 @@
         <v>50385.00392753457</v>
       </c>
       <c r="P4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133111.2257365655</v>
+        <v>133111.2257365653</v>
       </c>
       <c r="C6" t="n">
-        <v>116015.0721459674</v>
+        <v>116015.0721459676</v>
       </c>
       <c r="D6" t="n">
-        <v>176591.3943326359</v>
+        <v>176591.3943326357</v>
       </c>
       <c r="E6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.224605962</v>
       </c>
       <c r="F6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.2246059621</v>
       </c>
       <c r="G6" t="n">
-        <v>159278.2352260025</v>
+        <v>147060.2246059619</v>
       </c>
       <c r="H6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.224605962</v>
       </c>
       <c r="I6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.2246059619</v>
       </c>
       <c r="J6" t="n">
-        <v>145277.0030857231</v>
+        <v>133058.9924656826</v>
       </c>
       <c r="K6" t="n">
-        <v>111021.2822923698</v>
+        <v>98803.27167232931</v>
       </c>
       <c r="L6" t="n">
-        <v>159278.2352260023</v>
+        <v>147060.224605962</v>
       </c>
       <c r="M6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.2246059619</v>
       </c>
       <c r="N6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.224605962</v>
       </c>
       <c r="O6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.224605962</v>
       </c>
       <c r="P6" t="n">
-        <v>159278.2352260024</v>
+        <v>147060.224605962</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>210.0900866236266</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>307.8704497879187</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.7229152265467</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.02399860067941</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>204.5611476089559</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133238</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>260.3610887711225</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>120.3257465200187</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>30.86275655426235</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>37.63267730698374</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.8600405104216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>392.3966171480263</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>251.6582601192213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.62878828644585</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>66.37591561768434</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570938</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994976</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
